--- a/data/trans_orig/P6715-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Clase-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5603</v>
+        <v>5100</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002962222861110349</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01850452594710218</v>
+        <v>0.01684377437508743</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5133</v>
+        <v>4258</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001803980357374939</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01032369948858678</v>
+        <v>0.00856350442079044</v>
       </c>
     </row>
     <row r="5">
@@ -805,19 +805,19 @@
         <v>3701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8522</v>
+        <v>8472</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01222209253373759</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003035612894153337</v>
+        <v>0.003065802106133859</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02814473803853847</v>
+        <v>0.02797763691110294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5816</v>
+        <v>5786</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004983049917171357</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02991652833242273</v>
+        <v>0.02976358022262927</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -847,19 +847,19 @@
         <v>4670</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10342</v>
+        <v>10442</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00939159420934205</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003705543879378792</v>
+        <v>0.003712309958448069</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02080056302843258</v>
+        <v>0.02100105873029788</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>22548</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13124</v>
+        <v>14063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33596</v>
+        <v>33294</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07446310015513113</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0433409299371797</v>
+        <v>0.04644196522919468</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1109495874987979</v>
+        <v>0.1099536398108092</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -897,19 +897,19 @@
         <v>6079</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2073</v>
+        <v>2871</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12739</v>
+        <v>12265</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03126625359533577</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01066361248449998</v>
+        <v>0.01477002514310898</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0655245380720873</v>
+        <v>0.06308842137977337</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -918,19 +918,19 @@
         <v>28626</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19399</v>
+        <v>19113</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>41360</v>
+        <v>41230</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05757293825349159</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03901423415114879</v>
+        <v>0.03844061965252678</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08318323366224076</v>
+        <v>0.08292143374834209</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>42130</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31946</v>
+        <v>31952</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54631</v>
+        <v>55198</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1391342740549805</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1055000508687252</v>
+        <v>0.1055210636488395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1804182221884757</v>
+        <v>0.1822894156500311</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -968,19 +968,19 @@
         <v>40406</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29964</v>
+        <v>29198</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55206</v>
+        <v>53164</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2078352107511296</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1541240104667414</v>
+        <v>0.1501849373382308</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2839598122689908</v>
+        <v>0.273457048764789</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -989,19 +989,19 @@
         <v>82536</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65542</v>
+        <v>66594</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99125</v>
+        <v>101791</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1659966502700128</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.131817257111172</v>
+        <v>0.1339341265848986</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1993606295437452</v>
+        <v>0.2047214600802054</v>
       </c>
     </row>
     <row r="8">
@@ -1018,19 +1018,19 @@
         <v>233527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>217257</v>
+        <v>219534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>247236</v>
+        <v>247451</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7712183103950404</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7174848971854728</v>
+        <v>0.7250053667439283</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8164917315410255</v>
+        <v>0.8172024598352648</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>133</v>
@@ -1039,19 +1039,19 @@
         <v>146961</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>133141</v>
+        <v>134049</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>159037</v>
+        <v>158786</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7559154857363632</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6848298619514297</v>
+        <v>0.6895053823003404</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8180309040260431</v>
+        <v>0.8167419405596251</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>347</v>
@@ -1060,19 +1060,19 @@
         <v>380488</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>359972</v>
+        <v>359689</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>400763</v>
+        <v>399625</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7652348369097786</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7239735984238849</v>
+        <v>0.7234050350705179</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8060116607252497</v>
+        <v>0.8037240628334069</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5607</v>
+        <v>4739</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006006799279885055</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03415947331435951</v>
+        <v>0.0288739617302319</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5673</v>
+        <v>5000</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002338198293635314</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01345267215019541</v>
+        <v>0.01185867254856314</v>
       </c>
     </row>
     <row r="11">
@@ -1227,19 +1227,19 @@
         <v>2870</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7808</v>
+        <v>7856</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01114469465124276</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0</v>
+        <v>0.003589138170859422</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0303204289609394</v>
+        <v>0.03050460484097417</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1261,19 +1261,19 @@
         <v>2870</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7574</v>
+        <v>6867</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006806526385177259</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002161134504214182</v>
+        <v>0.002201196902437489</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01796090994182464</v>
+        <v>0.01628624912360684</v>
       </c>
     </row>
     <row r="12">
@@ -1290,19 +1290,19 @@
         <v>17698</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11459</v>
+        <v>10981</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27030</v>
+        <v>26989</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06872068720454706</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04449425446642814</v>
+        <v>0.04263780679793611</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.104956457908789</v>
+        <v>0.1047967448876679</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1311,19 +1311,19 @@
         <v>26769</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17437</v>
+        <v>17619</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38065</v>
+        <v>38200</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1630886858434147</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1062335563454778</v>
+        <v>0.1073389709059897</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2319041615230157</v>
+        <v>0.2327314290288746</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>42</v>
@@ -1332,19 +1332,19 @@
         <v>44467</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33246</v>
+        <v>33590</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>60904</v>
+        <v>58200</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1054542424824924</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07884318967014332</v>
+        <v>0.07965958477644419</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1444354167509008</v>
+        <v>0.1380225778012677</v>
       </c>
     </row>
     <row r="13">
@@ -1361,19 +1361,19 @@
         <v>67658</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53205</v>
+        <v>52544</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85171</v>
+        <v>82369</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2627169491015153</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2065938007566023</v>
+        <v>0.2040306237553779</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3307185522011412</v>
+        <v>0.3198417824752953</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1382,19 +1382,19 @@
         <v>39476</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29529</v>
+        <v>28755</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53450</v>
+        <v>51225</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2405014544512495</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1799018144275339</v>
+        <v>0.1751875215859347</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.325636496578477</v>
+        <v>0.3120828572765612</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -1403,19 +1403,19 @@
         <v>107133</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88067</v>
+        <v>88345</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>126262</v>
+        <v>127196</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2540693766984451</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2088518731571411</v>
+        <v>0.2095131159030705</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.299433543756798</v>
+        <v>0.3016490040943096</v>
       </c>
     </row>
     <row r="14">
@@ -1432,19 +1432,19 @@
         <v>169306</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152727</v>
+        <v>152507</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>185913</v>
+        <v>184925</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6574176690426948</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5930427511251065</v>
+        <v>0.5921866411509593</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.721900739089142</v>
+        <v>0.7180673608595028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>88</v>
@@ -1453,19 +1453,19 @@
         <v>96908</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>83882</v>
+        <v>83235</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>110681</v>
+        <v>109519</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5904030604254508</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5110440123490897</v>
+        <v>0.5070986700772652</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.674311030566169</v>
+        <v>0.6672340815664418</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>238</v>
@@ -1474,19 +1474,19 @@
         <v>266214</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>244106</v>
+        <v>244852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>287815</v>
+        <v>288600</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6313316561402499</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5789018726512339</v>
+        <v>0.5806723324721349</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.682560271784874</v>
+        <v>0.6844224377106133</v>
       </c>
     </row>
     <row r="15">
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5184</v>
+        <v>5170</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003642426215755326</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01847539671344324</v>
+        <v>0.01842653765619374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5135</v>
+        <v>5812</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002619706624380472</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01316277318095744</v>
+        <v>0.01489682229480742</v>
       </c>
     </row>
     <row r="17">
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11034</v>
+        <v>10073</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01055084201406664</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03932327078558384</v>
+        <v>0.03590016521109197</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1662,19 +1662,19 @@
         <v>4240</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1145</v>
+        <v>1057</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10662</v>
+        <v>9644</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03870351337036008</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01044941140385741</v>
+        <v>0.009644792309476711</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09733664776258999</v>
+        <v>0.08803776482343227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1683,19 +1683,19 @@
         <v>7200</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2899</v>
+        <v>2985</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15263</v>
+        <v>16206</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01845554257356675</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007429932136518314</v>
+        <v>0.007650588537232984</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03912203639587514</v>
+        <v>0.04153913356755495</v>
       </c>
     </row>
     <row r="18">
@@ -1712,19 +1712,19 @@
         <v>26727</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18660</v>
+        <v>18787</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37886</v>
+        <v>37171</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09525408450266921</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06650261552386826</v>
+        <v>0.066956152091836</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1350226395719432</v>
+        <v>0.1324737456106673</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -1733,19 +1733,19 @@
         <v>19278</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12384</v>
+        <v>12461</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28788</v>
+        <v>28813</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.175986212872263</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1130539737998384</v>
+        <v>0.1137589002231089</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2628079656443432</v>
+        <v>0.2630382106671825</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>45</v>
@@ -1754,19 +1754,19 @@
         <v>46005</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33384</v>
+        <v>35047</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59997</v>
+        <v>60268</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1179220328552899</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08557080442889324</v>
+        <v>0.08983455356509989</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1537860046455828</v>
+        <v>0.154482691744677</v>
       </c>
     </row>
     <row r="19">
@@ -1783,19 +1783,19 @@
         <v>66014</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53266</v>
+        <v>53365</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81127</v>
+        <v>82653</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2352687725721978</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.189837437889284</v>
+        <v>0.1901874324675473</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2891286281524838</v>
+        <v>0.294569451692934</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1804,19 +1804,19 @@
         <v>15368</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9516</v>
+        <v>8484</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24077</v>
+        <v>24009</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1402956411592879</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08687415673982908</v>
+        <v>0.0774497875444114</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2197950959078421</v>
+        <v>0.2191776268291156</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -1825,19 +1825,19 @@
         <v>81382</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67052</v>
+        <v>66442</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100422</v>
+        <v>98471</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2086022386750769</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1718710663209539</v>
+        <v>0.1703079415537088</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2574061232821867</v>
+        <v>0.2524037542063844</v>
       </c>
     </row>
     <row r="20">
@@ -1854,19 +1854,19 @@
         <v>183866</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167464</v>
+        <v>164323</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>198240</v>
+        <v>198364</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.655283874695311</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5968290639965674</v>
+        <v>0.5856346540651645</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7065105224339655</v>
+        <v>0.7069520524748079</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -1875,19 +1875,19 @@
         <v>70656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>59847</v>
+        <v>59711</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>80026</v>
+        <v>81158</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.645014632598089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5463431072417592</v>
+        <v>0.5450974721893169</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7305582256347612</v>
+        <v>0.7408886347657203</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>245</v>
@@ -1896,19 +1896,19 @@
         <v>254522</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>234161</v>
+        <v>234811</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>272672</v>
+        <v>273450</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6524004792716861</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6002124739997503</v>
+        <v>0.6018763110428231</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6989236279042211</v>
+        <v>0.700917513858655</v>
       </c>
     </row>
     <row r="21">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7572</v>
+        <v>7007</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005267243957940365</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01786431460492685</v>
+        <v>0.01653053820674007</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2021,19 +2021,19 @@
         <v>3066</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8308</v>
+        <v>8784</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01022489930069219</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003120832655446716</v>
+        <v>0.003110201353184103</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02771023572284645</v>
+        <v>0.02929741484307943</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2045,16 +2045,16 @@
         <v>1967</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11841</v>
+        <v>11769</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007321183767012503</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002718093200545888</v>
+        <v>0.002718608110983029</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0163615596392223</v>
+        <v>0.01626154809899276</v>
       </c>
     </row>
     <row r="23">
@@ -2071,19 +2071,19 @@
         <v>8189</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3944</v>
+        <v>3875</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15165</v>
+        <v>15399</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01931851948417885</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00930515496144693</v>
+        <v>0.009142807427297832</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03577596653248021</v>
+        <v>0.0363298284515482</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2092,19 +2092,19 @@
         <v>6435</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2383</v>
+        <v>2220</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13010</v>
+        <v>13141</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0214627523203738</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007946820407563745</v>
+        <v>0.007404812434185281</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04339144370492694</v>
+        <v>0.04382905640066232</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -2113,19 +2113,19 @@
         <v>14624</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8298</v>
+        <v>8417</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23611</v>
+        <v>23252</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02020686788230204</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01146639308589039</v>
+        <v>0.01163080387899879</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03262461789771555</v>
+        <v>0.03212891143006356</v>
       </c>
     </row>
     <row r="24">
@@ -2142,19 +2142,19 @@
         <v>64656</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>49561</v>
+        <v>49529</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>81190</v>
+        <v>80783</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.152535036693648</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1169224401014959</v>
+        <v>0.1168465301270809</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1915423353006444</v>
+        <v>0.1905820751858254</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>53</v>
@@ -2163,19 +2163,19 @@
         <v>56743</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>43778</v>
+        <v>43384</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72556</v>
+        <v>72382</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.189250583888344</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1460106164251246</v>
+        <v>0.1446953889977672</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2419921098966256</v>
+        <v>0.2414104020515561</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>113</v>
@@ -2184,19 +2184,19 @@
         <v>121399</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>102109</v>
+        <v>102438</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>142866</v>
+        <v>144844</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1677461634827069</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1410925760919723</v>
+        <v>0.1415465107351259</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1974092051624608</v>
+        <v>0.20014265515257</v>
       </c>
     </row>
     <row r="25">
@@ -2213,19 +2213,19 @@
         <v>97045</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78905</v>
+        <v>79563</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>115098</v>
+        <v>115710</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2289459735698852</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1861496137023266</v>
+        <v>0.1877040671570132</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2715368414057036</v>
+        <v>0.272979908250843</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -2234,19 +2234,19 @@
         <v>76552</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63382</v>
+        <v>62181</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>93053</v>
+        <v>91964</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.25531915631222</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2113929999199762</v>
+        <v>0.2073870128769074</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3103528916994131</v>
+        <v>0.3067206363388154</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>167</v>
@@ -2255,19 +2255,19 @@
         <v>173597</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>149470</v>
+        <v>150211</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>195506</v>
+        <v>197598</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2398722938122982</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2065343083455623</v>
+        <v>0.2075583107004007</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2701453365221738</v>
+        <v>0.2730363185548175</v>
       </c>
     </row>
     <row r="26">
@@ -2284,19 +2284,19 @@
         <v>251755</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>230057</v>
+        <v>230853</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>272489</v>
+        <v>272061</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5939332262943475</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5427452039287421</v>
+        <v>0.5446220298840936</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.642848484230402</v>
+        <v>0.6418397963190836</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>145</v>
@@ -2305,19 +2305,19 @@
         <v>157033</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>139116</v>
+        <v>138251</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>173581</v>
+        <v>173947</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.52374260817837</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4639833425025268</v>
+        <v>0.4611002152115161</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5789329077209262</v>
+        <v>0.5801550567469845</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>382</v>
@@ -2326,19 +2326,19 @@
         <v>408787</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>383851</v>
+        <v>377508</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>435929</v>
+        <v>435645</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5648534910556805</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.530397328736918</v>
+        <v>0.5216330449319663</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6023568370022139</v>
+        <v>0.6019648078487068</v>
       </c>
     </row>
     <row r="27">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7640</v>
+        <v>7124</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01380810381580477</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05028649202319968</v>
+        <v>0.04688685679817921</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7488</v>
+        <v>6571</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01222357196281101</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04309036500995368</v>
+        <v>0.03781074886163955</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2472,19 +2472,19 @@
         <v>4222</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9557</v>
+        <v>10480</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01296271425475964</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003258880590667167</v>
+        <v>0.00326723315270239</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0293427963334625</v>
+        <v>0.03217465364484846</v>
       </c>
     </row>
     <row r="29">
@@ -2501,19 +2501,19 @@
         <v>4250</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1039</v>
+        <v>1018</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10954</v>
+        <v>9814</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02797156338039166</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006839143094367872</v>
+        <v>0.006698195344885165</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.072098445598255</v>
+        <v>0.06459109070368499</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -2522,19 +2522,19 @@
         <v>8745</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4261</v>
+        <v>3728</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16316</v>
+        <v>15971</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05032274128422411</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02452010414914147</v>
+        <v>0.02145031991715781</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09389139775537604</v>
+        <v>0.09190746433044637</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -2543,19 +2543,19 @@
         <v>12995</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6991</v>
+        <v>7255</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21395</v>
+        <v>22479</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03989650666333185</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02146397839433945</v>
+        <v>0.02227459819786257</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06568679531432761</v>
+        <v>0.06901446206328542</v>
       </c>
     </row>
     <row r="30">
@@ -2572,19 +2572,19 @@
         <v>32058</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22247</v>
+        <v>21758</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>42357</v>
+        <v>42312</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2109990440369599</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1464246113392292</v>
+        <v>0.1432089460323589</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2787809134401602</v>
+        <v>0.2784903342917065</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -2593,19 +2593,19 @@
         <v>32321</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>23170</v>
+        <v>23583</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>44714</v>
+        <v>45036</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1859918157867655</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1333317935163855</v>
+        <v>0.1357116319413627</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2573125641526588</v>
+        <v>0.2591599055228154</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>59</v>
@@ -2614,19 +2614,19 @@
         <v>64379</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>50567</v>
+        <v>50981</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>81297</v>
+        <v>79618</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1976570277982553</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1552527922722694</v>
+        <v>0.1565214468601652</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2495978805044839</v>
+        <v>0.2444438666305069</v>
       </c>
     </row>
     <row r="31">
@@ -2643,19 +2643,19 @@
         <v>40706</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>29575</v>
+        <v>30896</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>52924</v>
+        <v>53475</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.267918442715622</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1946557486967932</v>
+        <v>0.2033525578656853</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.348330638644276</v>
+        <v>0.3519564576750879</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>40</v>
@@ -2664,19 +2664,19 @@
         <v>43806</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>32683</v>
+        <v>32446</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>56439</v>
+        <v>55635</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2520867388672988</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1880776919750371</v>
+        <v>0.1867138901273243</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3247819263571175</v>
+        <v>0.3201555361683381</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>78</v>
@@ -2685,19 +2685,19 @@
         <v>84513</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>68865</v>
+        <v>70236</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>102072</v>
+        <v>101816</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2594718108971178</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2114305953722935</v>
+        <v>0.2156389584226554</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3133834964896311</v>
+        <v>0.3125974513569694</v>
       </c>
     </row>
     <row r="32">
@@ -2714,19 +2714,19 @@
         <v>72823</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>60702</v>
+        <v>61143</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>85826</v>
+        <v>85064</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4793028460512216</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3995284900886214</v>
+        <v>0.4024280437066292</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5648860279996969</v>
+        <v>0.5598698237144556</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>78</v>
@@ -2735,19 +2735,19 @@
         <v>86779</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>71769</v>
+        <v>73245</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>99744</v>
+        <v>99622</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4993751320989005</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4130005285409571</v>
+        <v>0.4214904469217392</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5739814759928196</v>
+        <v>0.5732838483127976</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>148</v>
@@ -2756,19 +2756,19 @@
         <v>159602</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>139853</v>
+        <v>138564</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>176953</v>
+        <v>177454</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4900119403865354</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4293796712653482</v>
+        <v>0.4254225202892292</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5432836644817404</v>
+        <v>0.5448224851735984</v>
       </c>
     </row>
     <row r="33">
@@ -2860,19 +2860,19 @@
         <v>6250</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2814</v>
+        <v>2227</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14946</v>
+        <v>13068</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.004411263106489915</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001986405446185522</v>
+        <v>0.001571585950180095</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01054939439116018</v>
+        <v>0.009224163106861489</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -2881,19 +2881,19 @@
         <v>6176</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2137</v>
+        <v>2361</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14111</v>
+        <v>13340</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.006558177441171524</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002269538553480413</v>
+        <v>0.002507571863854316</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01498430819594345</v>
+        <v>0.01416628217238113</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -2902,19 +2902,19 @@
         <v>12425</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6997</v>
+        <v>6193</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>21743</v>
+        <v>21067</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005268503092226738</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002966963384308322</v>
+        <v>0.00262599917175472</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.009219227828274175</v>
+        <v>0.008932581896021849</v>
       </c>
     </row>
     <row r="35">
@@ -2931,19 +2931,19 @@
         <v>21970</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13381</v>
+        <v>14516</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>33345</v>
+        <v>33906</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01550746696001938</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.009444943829404168</v>
+        <v>0.01024603868156885</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02353628042654027</v>
+        <v>0.02393248549749953</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -2952,19 +2952,19 @@
         <v>20388</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11998</v>
+        <v>12727</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>31184</v>
+        <v>30811</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02165066108563212</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01274105480257683</v>
+        <v>0.01351521715258878</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0331149813828016</v>
+        <v>0.03271807151534687</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>40</v>
@@ -2973,19 +2973,19 @@
         <v>42358</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30476</v>
+        <v>30668</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>57462</v>
+        <v>57183</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01796037882499129</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01292194309645255</v>
+        <v>0.01300374039719129</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02436443731269863</v>
+        <v>0.02424621161020534</v>
       </c>
     </row>
     <row r="36">
@@ -3002,19 +3002,19 @@
         <v>163687</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>139945</v>
+        <v>138692</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>189284</v>
+        <v>188755</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1155380552330574</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09878008446042741</v>
+        <v>0.09789550270961174</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1336054484538195</v>
+        <v>0.1332320334069675</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>131</v>
@@ -3023,19 +3023,19 @@
         <v>141189</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>119514</v>
+        <v>119972</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>165365</v>
+        <v>164439</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1499302716723946</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1269131669484508</v>
+        <v>0.1273996970548668</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1756032097233701</v>
+        <v>0.1746197492397654</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>286</v>
@@ -3044,19 +3044,19 @@
         <v>304876</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>271393</v>
+        <v>271093</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>338773</v>
+        <v>339090</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1292705002839157</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1150736033266726</v>
+        <v>0.1149460317373677</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1436433765730267</v>
+        <v>0.1437774790603094</v>
       </c>
     </row>
     <row r="37">
@@ -3073,19 +3073,19 @@
         <v>313553</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>280873</v>
+        <v>279831</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>346097</v>
+        <v>344116</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2213208890153444</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1982534421902478</v>
+        <v>0.1975180626571524</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2442920612165284</v>
+        <v>0.2428932362066376</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>203</v>
@@ -3094,19 +3094,19 @@
         <v>215608</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>189306</v>
+        <v>192185</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>241130</v>
+        <v>246225</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2289569856185094</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.201026871844461</v>
+        <v>0.204083445220932</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.256059348419646</v>
+        <v>0.2614699015462567</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>502</v>
@@ -3115,19 +3115,19 @@
         <v>529161</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>489476</v>
+        <v>487342</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>575306</v>
+        <v>571781</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.224369900909968</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2075428760161033</v>
+        <v>0.2066378840562511</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2439356068377508</v>
+        <v>0.242441127654346</v>
       </c>
     </row>
     <row r="38">
@@ -3144,19 +3144,19 @@
         <v>911276</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>877366</v>
+        <v>872423</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>950833</v>
+        <v>945781</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6432223256850889</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6192869423804315</v>
+        <v>0.6157977430654064</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6711431776395164</v>
+        <v>0.6675772524119947</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>511</v>
@@ -3165,19 +3165,19 @@
         <v>558336</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>527792</v>
+        <v>528478</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>593975</v>
+        <v>591158</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5929039041822923</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5604686406199786</v>
+        <v>0.5611972013681145</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6307493525006511</v>
+        <v>0.6277584781102034</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1360</v>
@@ -3186,19 +3186,19 @@
         <v>1469612</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1420302</v>
+        <v>1421163</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1517304</v>
+        <v>1522017</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6231307168888982</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6022228177240259</v>
+        <v>0.6025876705427169</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6433525490962148</v>
+        <v>0.6453508629767523</v>
       </c>
     </row>
     <row r="39">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7674</v>
+        <v>7493</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004885035655960655</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02779954267074123</v>
+        <v>0.02714298407014287</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6970</v>
+        <v>6496</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009202640521249255</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03254177338793238</v>
+        <v>0.03033209285532655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -3573,19 +3573,19 @@
         <v>3319</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10181</v>
+        <v>9653</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006771346173159964</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001912196137128563</v>
+        <v>0.001924864863394539</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02076823757577529</v>
+        <v>0.01969014558667596</v>
       </c>
     </row>
     <row r="5">
@@ -3602,19 +3602,19 @@
         <v>11842</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5907</v>
+        <v>6425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21766</v>
+        <v>21826</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04289745393023055</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02139641906284163</v>
+        <v>0.02327609374586519</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07884659016230795</v>
+        <v>0.079064084652021</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3623,19 +3623,19 @@
         <v>4882</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1884</v>
+        <v>1902</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10749</v>
+        <v>10789</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02279282342021451</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008798723220967298</v>
+        <v>0.008879722825270416</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.050188191386471</v>
+        <v>0.05037586351612786</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -3644,19 +3644,19 @@
         <v>16724</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10005</v>
+        <v>9769</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27643</v>
+        <v>27080</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03411397856398383</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02040953547053173</v>
+        <v>0.01992763155873958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05638819164092058</v>
+        <v>0.055239776532538</v>
       </c>
     </row>
     <row r="6">
@@ -3673,19 +3673,19 @@
         <v>22060</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13017</v>
+        <v>12819</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32670</v>
+        <v>33773</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07991093905198283</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04715466570784186</v>
+        <v>0.04643671872136018</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1183479798790788</v>
+        <v>0.1223415515287935</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -3694,19 +3694,19 @@
         <v>16708</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10074</v>
+        <v>9705</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26939</v>
+        <v>25949</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07801061979275849</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04703739267991636</v>
+        <v>0.04531411816597194</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1257807989672275</v>
+        <v>0.1211568813555995</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -3715,19 +3715,19 @@
         <v>38768</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27202</v>
+        <v>27920</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52991</v>
+        <v>54025</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07908071203571981</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05548894774986939</v>
+        <v>0.05695306584640383</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1080949001694947</v>
+        <v>0.1102040323744853</v>
       </c>
     </row>
     <row r="7">
@@ -3744,19 +3744,19 @@
         <v>47950</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36474</v>
+        <v>36288</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61297</v>
+        <v>62104</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1736968084673239</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1321280985198393</v>
+        <v>0.1314529285790019</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2220469767099749</v>
+        <v>0.2249705890660199</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3765,19 +3765,19 @@
         <v>30864</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21213</v>
+        <v>22002</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42142</v>
+        <v>42576</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1441051447164244</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09904760818776759</v>
+        <v>0.1027314065254867</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1967635543568053</v>
+        <v>0.1987904371285524</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -3786,19 +3786,19 @@
         <v>78813</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62855</v>
+        <v>62782</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>96094</v>
+        <v>96118</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1607685604464119</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1282168016255476</v>
+        <v>0.1280681283844416</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1960195540537299</v>
+        <v>0.1960678138779857</v>
       </c>
     </row>
     <row r="8">
@@ -3815,19 +3815,19 @@
         <v>192853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174904</v>
+        <v>175788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>207742</v>
+        <v>207324</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6986097628945021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6335885772332523</v>
+        <v>0.6367897121726463</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7525455187093786</v>
+        <v>0.7510297307495225</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>156</v>
@@ -3836,19 +3836,19 @@
         <v>159750</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>144670</v>
+        <v>146113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>172618</v>
+        <v>172212</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7458887715493534</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6754806563101895</v>
+        <v>0.682215279487198</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8059707045371284</v>
+        <v>0.8040767924527981</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>334</v>
@@ -3857,19 +3857,19 @@
         <v>352603</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>332581</v>
+        <v>332456</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>372734</v>
+        <v>371758</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7192654027807245</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6784216067199683</v>
+        <v>0.6781681051241888</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7603291531995224</v>
+        <v>0.7583394801615957</v>
       </c>
     </row>
     <row r="9">
@@ -3961,19 +3961,19 @@
         <v>2988</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7826</v>
+        <v>7417</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01228596069753254</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00374831105807414</v>
+        <v>0.003789048196624098</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03217281167954908</v>
+        <v>0.03049248213998034</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7218</v>
+        <v>6209</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0107823052232337</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03815668136301099</v>
+        <v>0.03282037412507136</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -4003,19 +4003,19 @@
         <v>5028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1919</v>
+        <v>1975</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10455</v>
+        <v>11587</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0116281273533076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004438662880241912</v>
+        <v>0.004567817824974121</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02417824218415448</v>
+        <v>0.02679717972903441</v>
       </c>
     </row>
     <row r="11">
@@ -4032,19 +4032,19 @@
         <v>3328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9006</v>
+        <v>8924</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01368147597107412</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004315693339263051</v>
+        <v>0.004276542189961687</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03702635944991174</v>
+        <v>0.03668858230269636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -4053,19 +4053,19 @@
         <v>8415</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3770</v>
+        <v>3929</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16813</v>
+        <v>17432</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04448034793487721</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01993085958677206</v>
+        <v>0.02076661494429506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08887275045018132</v>
+        <v>0.09214778547008821</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -4074,19 +4074,19 @@
         <v>11742</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6468</v>
+        <v>5844</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21110</v>
+        <v>21045</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02715565625279855</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01495724340923637</v>
+        <v>0.01351470052783218</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04881971889750716</v>
+        <v>0.04866817827775041</v>
       </c>
     </row>
     <row r="12">
@@ -4103,19 +4103,19 @@
         <v>34479</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23223</v>
+        <v>23150</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47904</v>
+        <v>47182</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1417512408514568</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09547328014589708</v>
+        <v>0.09517268240180231</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1969428697835141</v>
+        <v>0.193976348257293</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -4124,19 +4124,19 @@
         <v>29530</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21093</v>
+        <v>20250</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40839</v>
+        <v>40954</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1560974802424042</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1114997519693836</v>
+        <v>0.1070450668743659</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2158763501917019</v>
+        <v>0.2164880353555836</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>58</v>
@@ -4145,19 +4145,19 @@
         <v>64009</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>50289</v>
+        <v>49890</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>80387</v>
+        <v>80241</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1480275686385779</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1162993716087398</v>
+        <v>0.1153760266838949</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1859035183177285</v>
+        <v>0.185565246213637</v>
       </c>
     </row>
     <row r="13">
@@ -4174,19 +4174,19 @@
         <v>70881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56407</v>
+        <v>56676</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85993</v>
+        <v>85835</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2914089183447433</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2319015605967211</v>
+        <v>0.2330078931746114</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3535369120124357</v>
+        <v>0.3528876004586237</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -4195,19 +4195,19 @@
         <v>63981</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50210</v>
+        <v>51455</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77477</v>
+        <v>77588</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3382064987896843</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2654120893839355</v>
+        <v>0.2719953354487122</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4095487275260833</v>
+        <v>0.4101377525702904</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -4216,19 +4216,19 @@
         <v>134862</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115671</v>
+        <v>116797</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154757</v>
+        <v>155370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3118823641386254</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2675003640503444</v>
+        <v>0.2701058078423558</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3578912341617718</v>
+        <v>0.3593085273387892</v>
       </c>
     </row>
     <row r="14">
@@ -4245,19 +4245,19 @@
         <v>131560</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115436</v>
+        <v>116311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149875</v>
+        <v>148602</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5408724041351933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4745806436765536</v>
+        <v>0.4781807914539917</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6161701931188154</v>
+        <v>0.6109355299543039</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -4266,19 +4266,19 @@
         <v>85211</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70938</v>
+        <v>71320</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>98607</v>
+        <v>98626</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4504333678098006</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3749816666668912</v>
+        <v>0.3770025752899026</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.521242147256227</v>
+        <v>0.5213476110768775</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>203</v>
@@ -4287,19 +4287,19 @@
         <v>216771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>195017</v>
+        <v>195704</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>237069</v>
+        <v>235818</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5013062836166906</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4509979223370481</v>
+        <v>0.4525853213421404</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5482471724576237</v>
+        <v>0.5453535316010084</v>
       </c>
     </row>
     <row r="15">
@@ -4391,19 +4391,19 @@
         <v>8413</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3736</v>
+        <v>3570</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17073</v>
+        <v>17684</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03889221475886855</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01727111044019385</v>
+        <v>0.01650117893423326</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07892089983637923</v>
+        <v>0.08174543543514588</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4425,19 +4425,19 @@
         <v>8413</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3647</v>
+        <v>3843</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17309</v>
+        <v>17899</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02989366898542938</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0129587563490312</v>
+        <v>0.01365548362335755</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06150186350264015</v>
+        <v>0.06359690381192248</v>
       </c>
     </row>
     <row r="17">
@@ -4454,19 +4454,19 @@
         <v>14662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8205</v>
+        <v>8192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24243</v>
+        <v>24996</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06777853610488689</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03792938739514365</v>
+        <v>0.03787040772834162</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.112068829167236</v>
+        <v>0.1155496741196998</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4529</v>
+        <v>4554</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0134028625256171</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06954958377395618</v>
+        <v>0.06993612474351445</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -4496,19 +4496,19 @@
         <v>15535</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8321</v>
+        <v>8616</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25375</v>
+        <v>24870</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05519756094833396</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02956584963452339</v>
+        <v>0.03061219055040165</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09016127321373399</v>
+        <v>0.08836504591036501</v>
       </c>
     </row>
     <row r="18">
@@ -4525,19 +4525,19 @@
         <v>21008</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12852</v>
+        <v>13614</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30521</v>
+        <v>30749</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09711256007063118</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05941175618211637</v>
+        <v>0.0629328073319793</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1410866203122569</v>
+        <v>0.1421434998447024</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -4546,19 +4546,19 @@
         <v>4869</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1862</v>
+        <v>1696</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10728</v>
+        <v>10341</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07477867593869866</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02859325796339457</v>
+        <v>0.02603998189053604</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1647531550917423</v>
+        <v>0.1588014772239681</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -4567,19 +4567,19 @@
         <v>25877</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17021</v>
+        <v>17872</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>36241</v>
+        <v>36759</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09194513826382719</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06047862123259069</v>
+        <v>0.06350246743916363</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1287694220755089</v>
+        <v>0.1306087467221554</v>
       </c>
     </row>
     <row r="19">
@@ -4596,19 +4596,19 @@
         <v>64246</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51357</v>
+        <v>51381</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79372</v>
+        <v>77793</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2969869495755681</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2374076219579037</v>
+        <v>0.2375195567905196</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3669112201993718</v>
+        <v>0.359610411152359</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -4617,19 +4617,19 @@
         <v>17368</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10721</v>
+        <v>11054</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24910</v>
+        <v>25177</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.266721312218952</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1646327135372647</v>
+        <v>0.1697467484059999</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3825331371722837</v>
+        <v>0.3866414969661316</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -4638,19 +4638,19 @@
         <v>81614</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66379</v>
+        <v>65541</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>97112</v>
+        <v>97450</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2899843470031929</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2358528105022614</v>
+        <v>0.232875567928392</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3450509491614487</v>
+        <v>0.3462501810416792</v>
       </c>
     </row>
     <row r="20">
@@ -4667,19 +4667,19 @@
         <v>107996</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>93851</v>
+        <v>92577</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123207</v>
+        <v>122944</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4992297394900453</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4338413863758283</v>
+        <v>0.4279525020200534</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5695481008934967</v>
+        <v>0.5683306676829977</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>40</v>
@@ -4688,19 +4688,19 @@
         <v>42007</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34047</v>
+        <v>33260</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49727</v>
+        <v>48506</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6450971493167322</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5228551152154151</v>
+        <v>0.5107694086681115</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7636378337046573</v>
+        <v>0.7448925226577001</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>142</v>
@@ -4709,19 +4709,19 @@
         <v>150003</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>133575</v>
+        <v>132250</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>167733</v>
+        <v>166589</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5329792847992165</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4746067579833899</v>
+        <v>0.4699010478867468</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5959758916550932</v>
+        <v>0.5919089246924709</v>
       </c>
     </row>
     <row r="21">
@@ -4813,19 +4813,19 @@
         <v>7526</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3140</v>
+        <v>3165</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13962</v>
+        <v>14352</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01543068056091196</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00643832310753065</v>
+        <v>0.006489865663490088</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02862882221714681</v>
+        <v>0.02942734970160945</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5936</v>
+        <v>6799</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005341271461430631</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01626615649927183</v>
+        <v>0.01863115472733782</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -4855,19 +4855,19 @@
         <v>9475</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4261</v>
+        <v>4117</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17968</v>
+        <v>16574</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01111228700012132</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004997318598851569</v>
+        <v>0.004828306931147373</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02107387213839681</v>
+        <v>0.01943826983425291</v>
       </c>
     </row>
     <row r="23">
@@ -4884,19 +4884,19 @@
         <v>16244</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9346</v>
+        <v>9226</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25739</v>
+        <v>26122</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03330718745643913</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0191631016730134</v>
+        <v>0.01891828827170212</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0527763798498421</v>
+        <v>0.05356165395654087</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -4905,19 +4905,19 @@
         <v>13877</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7594</v>
+        <v>8060</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22500</v>
+        <v>23707</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03802501513701807</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02080993357996364</v>
+        <v>0.02208504223769296</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06165465511069254</v>
+        <v>0.06496001062751217</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -4926,19 +4926,19 @@
         <v>30121</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20031</v>
+        <v>20476</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>41099</v>
+        <v>43157</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03532647683957846</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02349285115434273</v>
+        <v>0.02401514871117953</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04820192817616105</v>
+        <v>0.05061523133814422</v>
       </c>
     </row>
     <row r="24">
@@ -4955,19 +4955,19 @@
         <v>84784</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>69419</v>
+        <v>67465</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>102989</v>
+        <v>102703</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1738450676388595</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1423394994907579</v>
+        <v>0.1383331473057028</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2111724165324949</v>
+        <v>0.2105866687152344</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>67</v>
@@ -4976,19 +4976,19 @@
         <v>67778</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>54397</v>
+        <v>54136</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>83183</v>
+        <v>82843</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.185723430664974</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1490563098320745</v>
+        <v>0.1483418305361249</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2279337158420291</v>
+        <v>0.2270039769213803</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>146</v>
@@ -4997,19 +4997,19 @@
         <v>152563</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>131231</v>
+        <v>131370</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>175977</v>
+        <v>176131</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1789291559039833</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1539113917901279</v>
+        <v>0.1540745786297703</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2063907046829478</v>
+        <v>0.2065703691591224</v>
       </c>
     </row>
     <row r="25">
@@ -5026,19 +5026,19 @@
         <v>162519</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>142317</v>
+        <v>142361</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>185222</v>
+        <v>184828</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3332342414934777</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2918125800542972</v>
+        <v>0.2919030904525664</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3797859634901115</v>
+        <v>0.3789780610278269</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>116</v>
@@ -5047,19 +5047,19 @@
         <v>114070</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>97408</v>
+        <v>97677</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>131380</v>
+        <v>132006</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3125711090203693</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2669125934396813</v>
+        <v>0.2676516148841084</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3600015686662762</v>
+        <v>0.3617185271822935</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>272</v>
@@ -5068,19 +5068,19 @@
         <v>276589</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>249994</v>
+        <v>249799</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>302990</v>
+        <v>303403</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3243901617919001</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2931995768068373</v>
+        <v>0.2929710686302472</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3553544259762907</v>
+        <v>0.3558387342248945</v>
       </c>
     </row>
     <row r="26">
@@ -5097,19 +5097,19 @@
         <v>216628</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>195220</v>
+        <v>195776</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>237783</v>
+        <v>238192</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4441828228503117</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4002858325074153</v>
+        <v>0.4014269266020023</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4875586997049726</v>
+        <v>0.4883974365034981</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>161</v>
@@ -5118,19 +5118,19 @@
         <v>167267</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>150974</v>
+        <v>149258</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>186310</v>
+        <v>186130</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.458339173716208</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.413692222040072</v>
+        <v>0.4089896571111722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.51052032393737</v>
+        <v>0.5100264791875989</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>367</v>
@@ -5139,19 +5139,19 @@
         <v>383895</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>355888</v>
+        <v>355659</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>414363</v>
+        <v>414698</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4502419184644168</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4173946826482657</v>
+        <v>0.4171254874901408</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4859748134094852</v>
+        <v>0.486368764523712</v>
       </c>
     </row>
     <row r="27">
@@ -5243,19 +5243,19 @@
         <v>3153</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8089</v>
+        <v>7542</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01633579428087421</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005274232592405477</v>
+        <v>0.005284484342487111</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04190895043971501</v>
+        <v>0.03907150622717408</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -5264,19 +5264,19 @@
         <v>10300</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5074</v>
+        <v>5249</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18537</v>
+        <v>18738</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0521185838116377</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0256780875562005</v>
+        <v>0.02655874951334961</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09379989645786574</v>
+        <v>0.09481916623825339</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -5285,19 +5285,19 @@
         <v>13453</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7462</v>
+        <v>7223</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>22595</v>
+        <v>22794</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03443774556632239</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01910127112140891</v>
+        <v>0.01849053465842532</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05784203371533923</v>
+        <v>0.05835018085313527</v>
       </c>
     </row>
     <row r="29">
@@ -5314,19 +5314,19 @@
         <v>8697</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3991</v>
+        <v>3955</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16475</v>
+        <v>15881</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04505521462070644</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02067478024992474</v>
+        <v>0.02049154796583924</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08535537426397527</v>
+        <v>0.0822748007324916</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -5335,19 +5335,19 @@
         <v>8036</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3219</v>
+        <v>3854</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15200</v>
+        <v>14382</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04066237109981436</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01628662606462145</v>
+        <v>0.01950326868948055</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07691360642495294</v>
+        <v>0.07277494536216247</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -5356,19 +5356,19 @@
         <v>16732</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9871</v>
+        <v>10008</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>26836</v>
+        <v>26913</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04283294406934486</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02526851508181113</v>
+        <v>0.02561828195084141</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06869680228099628</v>
+        <v>0.0688952550009287</v>
       </c>
     </row>
     <row r="30">
@@ -5385,19 +5385,19 @@
         <v>50859</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38089</v>
+        <v>38881</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>64710</v>
+        <v>64568</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2634878537450995</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1973278355122273</v>
+        <v>0.2014309333788178</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3352477876129452</v>
+        <v>0.3345132620869957</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>39</v>
@@ -5406,19 +5406,19 @@
         <v>40665</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>29326</v>
+        <v>30050</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>51531</v>
+        <v>53768</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2057749875430658</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1483961780235691</v>
+        <v>0.1520591963035267</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.260761009311187</v>
+        <v>0.27207917179633</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>84</v>
@@ -5427,19 +5427,19 @@
         <v>91524</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>74796</v>
+        <v>75089</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>109320</v>
+        <v>108770</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2342918210647901</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1914691939992764</v>
+        <v>0.1922208952977491</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2798478332046325</v>
+        <v>0.2784405583258915</v>
       </c>
     </row>
     <row r="31">
@@ -5456,19 +5456,19 @@
         <v>55830</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>42901</v>
+        <v>42669</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>68027</v>
+        <v>70762</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2892392292981529</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2222615901766956</v>
+        <v>0.2210589420352996</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3524302815474577</v>
+        <v>0.3666001397759062</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>61</v>
@@ -5477,19 +5477,19 @@
         <v>62130</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>49768</v>
+        <v>50189</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>75345</v>
+        <v>76217</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3143904505398112</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.25183864622001</v>
+        <v>0.253969536008159</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3812617817975814</v>
+        <v>0.3856776217346867</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>113</v>
@@ -5498,19 +5498,19 @@
         <v>117959</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>100661</v>
+        <v>99937</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>137179</v>
+        <v>136492</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3019628371458476</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2576819470297825</v>
+        <v>0.2558291257455718</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3511645803448052</v>
+        <v>0.3494070206792477</v>
       </c>
     </row>
     <row r="32">
@@ -5527,19 +5527,19 @@
         <v>74484</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>61106</v>
+        <v>61229</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>88777</v>
+        <v>87582</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3858819080551669</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3165768572711928</v>
+        <v>0.3172125333173884</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4599326683202943</v>
+        <v>0.4537408463975846</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>74</v>
@@ -5548,19 +5548,19 @@
         <v>76489</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>63285</v>
+        <v>62149</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>90293</v>
+        <v>89920</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3870536070056709</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3202369939631776</v>
+        <v>0.3144912442062413</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4569063651036439</v>
+        <v>0.4550159344298619</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>142</v>
@@ -5569,19 +5569,19 @@
         <v>150972</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>132665</v>
+        <v>129703</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>171284</v>
+        <v>170821</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.386474652153695</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.33960820469991</v>
+        <v>0.3320271982796085</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4384708094487894</v>
+        <v>0.4372853443910292</v>
       </c>
     </row>
     <row r="33">
@@ -5673,19 +5673,19 @@
         <v>23429</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>15125</v>
+        <v>14682</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>35566</v>
+        <v>35077</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01654197295969511</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01067903491828407</v>
+        <v>0.0103664045031098</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02511111341180397</v>
+        <v>0.0247660446904099</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -5694,19 +5694,19 @@
         <v>16260</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9184</v>
+        <v>9662</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25543</v>
+        <v>25917</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01577025940870173</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.008907703372887465</v>
+        <v>0.009371024321866527</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02477389683127257</v>
+        <v>0.02513727599726951</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>37</v>
@@ -5715,19 +5715,19 @@
         <v>39689</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28144</v>
+        <v>26893</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>54813</v>
+        <v>52341</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0162168646760768</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.011499565763251</v>
+        <v>0.01098848783791751</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02239689297733814</v>
+        <v>0.02138675775600983</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>54773</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>41720</v>
+        <v>40193</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>73396</v>
+        <v>70857</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03867199103263546</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02945646018729462</v>
+        <v>0.02837808057235928</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05182072510695141</v>
+        <v>0.05002835522511006</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>36</v>
@@ -5765,19 +5765,19 @@
         <v>36082</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>26115</v>
+        <v>25538</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>50930</v>
+        <v>51441</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0349957084219624</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02532951794899305</v>
+        <v>0.02476929305510499</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04939738062287082</v>
+        <v>0.04989313020516278</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>85</v>
@@ -5786,19 +5786,19 @@
         <v>90854</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>71457</v>
+        <v>73530</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>110620</v>
+        <v>112497</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0371232428888284</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02919736811293202</v>
+        <v>0.03004463830072552</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04519943615979086</v>
+        <v>0.04596638003989583</v>
       </c>
     </row>
     <row r="36">
@@ -5815,19 +5815,19 @@
         <v>213190</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>185946</v>
+        <v>184637</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>244397</v>
+        <v>242996</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1505219835896045</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1312866820320643</v>
+        <v>0.1303625132928321</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.172555605494113</v>
+        <v>0.1715665204317025</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>156</v>
@@ -5836,19 +5836,19 @@
         <v>159550</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>137483</v>
+        <v>138754</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>184025</v>
+        <v>182973</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1547487714147495</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1333454896028805</v>
+        <v>0.1345784677096986</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1784866234456025</v>
+        <v>0.1774659864300346</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>347</v>
@@ -5857,19 +5857,19 @@
         <v>372740</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>334884</v>
+        <v>338227</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>410479</v>
+        <v>407199</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1523026491400316</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1368345098321752</v>
+        <v>0.138200500385476</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1677226772023408</v>
+        <v>0.1663827486979489</v>
       </c>
     </row>
     <row r="37">
@@ -5886,19 +5886,19 @@
         <v>401425</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>368063</v>
+        <v>366063</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>436882</v>
+        <v>435756</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2834245043342091</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2598699114525261</v>
+        <v>0.2584573819697791</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3084588328220446</v>
+        <v>0.3076640645675069</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>287</v>
@@ -5907,19 +5907,19 @@
         <v>288412</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>260782</v>
+        <v>258756</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>319919</v>
+        <v>315066</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2797324547236316</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2529335517308959</v>
+        <v>0.2509690747171928</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3102914119434543</v>
+        <v>0.3055838293844046</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>667</v>
@@ -5928,19 +5928,19 @@
         <v>689837</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>644153</v>
+        <v>648832</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>731127</v>
+        <v>734899</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2818691138523608</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2632025213819214</v>
+        <v>0.2651144981660417</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2987406668241043</v>
+        <v>0.3002816511045964</v>
       </c>
     </row>
     <row r="38">
@@ -5957,19 +5957,19 @@
         <v>723521</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>686541</v>
+        <v>686296</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>761868</v>
+        <v>761088</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5108395480838558</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4847303135405702</v>
+        <v>0.4845567371132194</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5379146856864132</v>
+        <v>0.5373639682265967</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>512</v>
@@ -5978,19 +5978,19 @@
         <v>530725</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>497356</v>
+        <v>497101</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>561756</v>
+        <v>561489</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5147528060309547</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4823880330412151</v>
+        <v>0.4821407124683132</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5448499368188348</v>
+        <v>0.5445912815621652</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1188</v>
@@ -5999,19 +5999,19 @@
         <v>1254246</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1205815</v>
+        <v>1208225</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1307793</v>
+        <v>1309596</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5124881294427025</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4926993209019481</v>
+        <v>0.4936839577302798</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5343678792108902</v>
+        <v>0.5351044865059937</v>
       </c>
     </row>
     <row r="39">
